--- a/ドキュメントファイル/クイズ画面設計.xlsx
+++ b/ドキュメントファイル/クイズ画面設計.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>A</t>
     <phoneticPr fontId="2"/>
@@ -402,6 +402,13 @@
   </si>
   <si>
     <t>ようこそ〇〇クイズへ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次へをクリック</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1437,865 +1444,6 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>235923</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>128647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>235923</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>143887</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="121" name="グループ化 120"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8160723" y="5756561"/>
-          <a:ext cx="5486400" cy="3444240"/>
-          <a:chOff x="10599123" y="7526974"/>
-          <a:chExt cx="5486400" cy="3506586"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="69" name="正方形/長方形 68"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10599123" y="7526974"/>
-            <a:ext cx="5486400" cy="3506586"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>　〇</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>/10</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>問目</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>　カテゴリ：横浜</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>正解！</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>C</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>（ あなたの解答：</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>C</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>）</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="90" name="正方形/長方形 89"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11724212" y="9451800"/>
-            <a:ext cx="3037113" cy="1358209"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>解説</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="98" name="グループ化 97"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="14991013" y="9766762"/>
-            <a:ext cx="845234" cy="1068032"/>
-            <a:chOff x="5632267" y="2857500"/>
-            <a:chExt cx="845234" cy="1083965"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="99" name="グループ化 98"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="5632267" y="2969622"/>
-              <a:ext cx="845234" cy="971843"/>
-              <a:chOff x="8762999" y="1262743"/>
-              <a:chExt cx="845234" cy="978374"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="101" name="円/楕円 100"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm rot="-2220000">
-                <a:off x="8762999" y="1349492"/>
-                <a:ext cx="45719" cy="80806"/>
-              </a:xfrm>
-              <a:prstGeom prst="ellipse">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                <a:prstTxWarp prst="textNoShape">
-                  <a:avLst/>
-                </a:prstTxWarp>
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="102" name="正方形/長方形 101"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm rot="2053481">
-                <a:off x="8836856" y="1484388"/>
-                <a:ext cx="261257" cy="107601"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                <a:prstTxWarp prst="textNoShape">
-                  <a:avLst/>
-                </a:prstTxWarp>
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="103" name="正方形/長方形 102"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm rot="2053481">
-                <a:off x="9285847" y="1626158"/>
-                <a:ext cx="261257" cy="107601"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                <a:prstTxWarp prst="textNoShape">
-                  <a:avLst/>
-                </a:prstTxWarp>
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="104" name="円/楕円 103"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="8772378" y="1378717"/>
-                <a:ext cx="111369" cy="123092"/>
-              </a:xfrm>
-              <a:prstGeom prst="ellipse">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                <a:prstTxWarp prst="textNoShape">
-                  <a:avLst/>
-                </a:prstTxWarp>
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="105" name="正方形/長方形 104"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm rot="230987">
-                <a:off x="9071316" y="1920238"/>
-                <a:ext cx="148714" cy="320879"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                <a:prstTxWarp prst="textNoShape">
-                  <a:avLst/>
-                </a:prstTxWarp>
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="106" name="円/楕円 105"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="9496864" y="1713830"/>
-                <a:ext cx="111369" cy="123092"/>
-              </a:xfrm>
-              <a:prstGeom prst="ellipse">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                <a:prstTxWarp prst="textNoShape">
-                  <a:avLst/>
-                </a:prstTxWarp>
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="107" name="正方形/長方形 106"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm rot="21376987">
-                <a:off x="9223716" y="1920238"/>
-                <a:ext cx="148714" cy="320879"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                <a:prstTxWarp prst="textNoShape">
-                  <a:avLst/>
-                </a:prstTxWarp>
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="108" name="角丸四角形 107"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="9031291" y="1543427"/>
-                <a:ext cx="359228" cy="402771"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 29721"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                <a:prstTxWarp prst="textNoShape">
-                  <a:avLst/>
-                </a:prstTxWarp>
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="109" name="円/楕円 108"/>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="9067800" y="1262743"/>
-                <a:ext cx="283028" cy="293914"/>
-              </a:xfrm>
-              <a:prstGeom prst="ellipse">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                <a:prstTxWarp prst="textNoShape">
-                  <a:avLst/>
-                </a:prstTxWarp>
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="100" name="スマイル 99"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5875020" y="2857500"/>
-              <a:ext cx="419100" cy="419100"/>
-            </a:xfrm>
-            <a:prstGeom prst="smileyFace">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4756,11 +3904,978 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>235923</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>235923</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>143887</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8160723" y="5756561"/>
+          <a:ext cx="5486400" cy="3444240"/>
+          <a:chOff x="8160723" y="5756561"/>
+          <a:chExt cx="5486400" cy="3444240"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="121" name="グループ化 120"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8160723" y="5756561"/>
+            <a:ext cx="5486400" cy="3444240"/>
+            <a:chOff x="10599123" y="7526974"/>
+            <a:chExt cx="5486400" cy="3506586"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="69" name="正方形/長方形 68"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10599123" y="7526974"/>
+              <a:ext cx="5486400" cy="3506586"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>　〇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>/10</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>問目</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>　カテゴリ：横浜</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>正解！</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>C</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>（ あなたの解答：</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>C</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>）</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="90" name="正方形/長方形 89"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11724212" y="9451800"/>
+              <a:ext cx="3037113" cy="1047372"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>解説</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="98" name="グループ化 97"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="14991013" y="9766762"/>
+              <a:ext cx="845234" cy="1068032"/>
+              <a:chOff x="5632267" y="2857500"/>
+              <a:chExt cx="845234" cy="1083965"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="99" name="グループ化 98"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="5632267" y="2969622"/>
+                <a:ext cx="845234" cy="971843"/>
+                <a:chOff x="8762999" y="1262743"/>
+                <a:chExt cx="845234" cy="978374"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="101" name="円/楕円 100"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm rot="-2220000">
+                  <a:off x="8762999" y="1349492"/>
+                  <a:ext cx="45719" cy="80806"/>
+                </a:xfrm>
+                <a:prstGeom prst="ellipse">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                  <a:prstTxWarp prst="textNoShape">
+                    <a:avLst/>
+                  </a:prstTxWarp>
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="102" name="正方形/長方形 101"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm rot="2053481">
+                  <a:off x="8836856" y="1484388"/>
+                  <a:ext cx="261257" cy="107601"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                  <a:prstTxWarp prst="textNoShape">
+                    <a:avLst/>
+                  </a:prstTxWarp>
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm rot="2053481">
+                  <a:off x="9285847" y="1626158"/>
+                  <a:ext cx="261257" cy="107601"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                  <a:prstTxWarp prst="textNoShape">
+                    <a:avLst/>
+                  </a:prstTxWarp>
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="104" name="円/楕円 103"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="8772378" y="1378717"/>
+                  <a:ext cx="111369" cy="123092"/>
+                </a:xfrm>
+                <a:prstGeom prst="ellipse">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                  <a:prstTxWarp prst="textNoShape">
+                    <a:avLst/>
+                  </a:prstTxWarp>
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm rot="230987">
+                  <a:off x="9071316" y="1920238"/>
+                  <a:ext cx="148714" cy="320879"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                  <a:prstTxWarp prst="textNoShape">
+                    <a:avLst/>
+                  </a:prstTxWarp>
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="106" name="円/楕円 105"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="9496864" y="1713830"/>
+                  <a:ext cx="111369" cy="123092"/>
+                </a:xfrm>
+                <a:prstGeom prst="ellipse">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                  <a:prstTxWarp prst="textNoShape">
+                    <a:avLst/>
+                  </a:prstTxWarp>
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm rot="21376987">
+                  <a:off x="9223716" y="1920238"/>
+                  <a:ext cx="148714" cy="320879"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                  <a:prstTxWarp prst="textNoShape">
+                    <a:avLst/>
+                  </a:prstTxWarp>
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="108" name="角丸四角形 107"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="9031291" y="1543427"/>
+                  <a:ext cx="359228" cy="402771"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst>
+                    <a:gd name="adj" fmla="val 29721"/>
+                  </a:avLst>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                  <a:prstTxWarp prst="textNoShape">
+                    <a:avLst/>
+                  </a:prstTxWarp>
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="109" name="円/楕円 108"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="9067800" y="1262743"/>
+                  <a:ext cx="283028" cy="293914"/>
+                </a:xfrm>
+                <a:prstGeom prst="ellipse">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                  <a:prstTxWarp prst="textNoShape">
+                    <a:avLst/>
+                  </a:prstTxWarp>
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="100" name="スマイル 99"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5875020" y="2857500"/>
+                <a:ext cx="419100" cy="419100"/>
+              </a:xfrm>
+              <a:prstGeom prst="smileyFace">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                <a:prstTxWarp prst="textNoShape">
+                  <a:avLst/>
+                </a:prstTxWarp>
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="テキスト ボックス 69"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10569039" y="8753512"/>
+            <a:ext cx="708562" cy="346946"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>次へ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>64769</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>100467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>11151</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="図 75"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11647169" y="6474373"/>
+          <a:ext cx="3603982" cy="2266216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -7342,7 +7457,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>indexServlet.java</a:t>
+            <a:t>TopServlet.java</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -7409,18 +7524,18 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>index.jsp</a:t>
+            <a:t>top.jsp</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -7538,13 +7653,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>328550</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>32659</xdr:rowOff>
+      <xdr:rowOff>5764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>328550</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
+      <xdr:rowOff>16648</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7553,8 +7668,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11301350" y="1012373"/>
-          <a:ext cx="0" cy="1970313"/>
+          <a:off x="11301350" y="1027740"/>
+          <a:ext cx="0" cy="2054837"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7871,7 +7986,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7918,7 +8033,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7933,53 +8048,6 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4347210" y="6366796"/>
-          <a:ext cx="3598634" cy="2262853"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>64769</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>87916</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>5803</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>3809</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="図 106"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11647169" y="6366796"/>
           <a:ext cx="3598634" cy="2262853"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8957,126 +9025,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>423554</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>116655</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>370115</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>93489</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="テキスト ボックス 71"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8957954" y="286984"/>
-          <a:ext cx="1775361" cy="317493"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>index.jsp</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>92035</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>102454</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>92035</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>44937</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="直線矢印コネクタ 73"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="126" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9845635" y="613442"/>
-          <a:ext cx="0" cy="283142"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12780,8 +12728,8 @@
   </sheetPr>
   <dimension ref="A23:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S64" sqref="S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -12801,16 +12749,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A26:A27"/>
+  <dimension ref="W26:W37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="26" ht="19.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" ht="13.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W37" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
